--- a/Factuurbon/Factuur_Bart van Wijk_.xlsx
+++ b/Factuurbon/Factuur_Bart van Wijk_.xlsx
@@ -26,6 +26,9 @@
     <t>Klantennummer</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -47,16 +50,13 @@
     <t>Fetakaas</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>€ 1.34</t>
   </si>
   <si>
-    <t>Korting: 50%</t>
-  </si>
-  <si>
-    <t>€ 0.67</t>
+    <t>Korting: %</t>
+  </si>
+  <si>
+    <t>€ 0.00</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
     <col min="1" max="1" width="16"/>
     <col min="2" max="2" width="20"/>
     <col min="3" max="3" width="8"/>
-    <col min="4" max="4" width="13"/>
+    <col min="4" max="4" width="11"/>
     <col min="5" max="5" width="7"/>
   </cols>
   <sheetData>
@@ -141,13 +141,13 @@
       <c r="A3" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>79001</v>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>44637</v>
@@ -156,19 +156,19 @@
     <row r="5"/>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -176,13 +176,13 @@
         <v>11001</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s" s="4">
         <v>13</v>
@@ -190,13 +190,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s" s="4">
         <v>14</v>
